--- a/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC30.xlsx
+++ b/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johana Montejo Rozo\Dropbox\AULA PLANETA\Temas\Tema 1\Edición\Solicitudes Graficas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Matematicas\fuentes\contenidos\grado04\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20492" windowHeight="7758" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -528,9 +528,6 @@
     <t>MA_04_01_CO_REC30</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC30, pág. 2)</t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
@@ -553,10 +550,6 @@
   </si>
   <si>
     <t>Pasillo de un hospital donde se ven médicos, enfermeras con sus uniformes y un paciente</t>
-  </si>
-  <si>
-    <t>129916589
-(Ver recurso MA_04_01_CO_REC30, pág. 3)</t>
   </si>
   <si>
     <t>Conjunto de medicinas representado en Diagrama de Venn</t>
@@ -588,6 +581,13 @@
   </si>
   <si>
     <t>Conjunto de útiles escolares.</t>
+  </si>
+  <si>
+    <t>(Ver Observaciones)</t>
+  </si>
+  <si>
+    <t>129916589
+(Ver Observaciones)</t>
   </si>
 </sst>
 </file>
@@ -1298,59 +1298,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1364,13 +1328,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1378,9 +1336,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1390,13 +1345,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1436,12 +1387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1502,9 +1447,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1515,18 +1457,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1538,12 +1474,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,24 +1482,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1627,6 +1539,90 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1744,7 +1740,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1761,20 +1757,207 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3968750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16432869" y="1946890"/>
+          <a:ext cx="3968750" cy="494030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1463040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16432869" y="2282011"/>
+          <a:ext cx="1463040" cy="494030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2279650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1306830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16432869" y="2617131"/>
+          <a:ext cx="2279650" cy="1306830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2362835</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1327150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16432869" y="4575989"/>
+          <a:ext cx="2362835" cy="1327150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>19150</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1038873</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>239372</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1821,15 +2004,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1048448</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>866526</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>239372</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1876,15 +2059,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>19150</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>9575</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>239372</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1933,13 +2116,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>483531</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1019724</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>713328</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1986,15 +2169,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1019724</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>483531</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>828226</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>713328</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2041,15 +2224,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>9575</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>483531</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
+          <xdr:colOff>837801</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>713328</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2096,15 +2279,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>9575</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>483531</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
+          <xdr:colOff>837801</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>713328</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2475,2844 +2658,2843 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.2" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="7.875" style="81" customWidth="1"/>
+    <col min="2" max="2" width="21" style="81" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="81" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="81" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="81" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="81" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="81" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="81" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="81" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="86" customWidth="1"/>
+    <col min="11" max="11" width="56.4375" style="86" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="81" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="81" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+      <c r="A2" s="80"/>
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="F2" s="87" t="s">
+      <c r="D2" s="85"/>
+      <c r="F2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+      <c r="A3" s="80"/>
+      <c r="B3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="88">
         <v>4</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+      <c r="A4" s="80"/>
+      <c r="B4" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="55" t="s">
+      <c r="D4" s="89"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="80"/>
+      <c r="B5" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="53" t="str">
+      <c r="D5" s="96"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="97" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="40" t="s">
+      <c r="G5" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="82"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="80"/>
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="91" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:16" s="105" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+    </row>
+    <row r="9" spans="1:16" ht="26.05" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="str">
+    <row r="10" spans="1:16" s="104" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="27" t="str">
+      <c r="B10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="9" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="3" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_04_01_CO_REC30_IMG01.jpg</v>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="3" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="3" t="str">
         <f>IF(I10&lt;&gt;"",IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I10" s="14" t="str">
+      <c r="I10" s="3" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="J10" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="27" t="str">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" s="104" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="9" t="str">
         <f t="shared" ref="C11:C22" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="F11" s="3" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_04_01_CO_REC30_IMG02.jpg</v>
       </c>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="3" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H11" s="14" t="str">
+      <c r="H11" s="3" t="str">
         <f t="shared" ref="H11:H74" si="2">IF(I11&lt;&gt;"",IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="3" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" s="104" customFormat="1" ht="114.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="27" t="str">
+      <c r="B12" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>MA_04_01_CO_REC30_IMG03.jpg</v>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="3" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" s="14" t="str">
+      <c r="I12" s="3" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="str">
+      <c r="J12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" s="104" customFormat="1" ht="39.6" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="str">
         <f t="shared" ref="A13:A30" si="3">IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(LEFT(A12,3),IF(MID(A12,4,2)+1&lt;10,CONCATENATE("0",MID(A12,4,2)+1))),"")</f>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="10">
         <v>156022655</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="14" t="str">
+      <c r="F13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>MA_04_01_CO_REC30_IMG04.jpg</v>
       </c>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="3" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H13" s="14" t="str">
+      <c r="H13" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="14" t="str">
+      <c r="I13" s="3" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="str">
+      <c r="J13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" s="104" customFormat="1" ht="124.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="27" t="str">
+      <c r="B14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D14" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="80" t="s">
+      <c r="D14" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="14" t="str">
+      <c r="F14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>MA_04_01_CO_REC30_IMG05.jpg</v>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="3" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" s="14" t="str">
+      <c r="I14" s="3" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" s="104" customFormat="1" ht="52.8" x14ac:dyDescent="0.5">
+      <c r="A15" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D15" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="80" t="s">
+      <c r="D15" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="14" t="str">
+      <c r="F15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>MA_04_01_CO_REC30_IMG06.jpg</v>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="3" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="3" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="str">
+      <c r="J15" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" s="104" customFormat="1" ht="52.8" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="10">
         <v>109977371</v>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="14" t="str">
+      <c r="F16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>MA_04_01_CO_REC30_IMG07.jpg</v>
       </c>
-      <c r="G16" s="14" t="str">
+      <c r="G16" s="3" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H16" s="14" t="str">
+      <c r="H16" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I16" s="14" t="str">
+      <c r="I16" s="3" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J16" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="J16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="106"/>
+    </row>
+    <row r="17" spans="1:11" s="104" customFormat="1" ht="52.8" x14ac:dyDescent="0.5">
+      <c r="A17" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D17" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="80" t="s">
+      <c r="D17" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="14" t="str">
+      <c r="F17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>MA_04_01_CO_REC30_IMG08.jpg</v>
       </c>
-      <c r="G17" s="14" t="str">
+      <c r="G17" s="3" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="H17" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I17" s="14" t="str">
+      <c r="I17" s="3" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J17" s="84" t="s">
+      <c r="J17" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" s="104" customFormat="1" ht="39.6" x14ac:dyDescent="0.5">
+      <c r="A18" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="27" t="str">
+      <c r="B18" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D18" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="80" t="s">
+      <c r="D18" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="14" t="str">
+      <c r="F18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>MA_04_01_CO_REC30_IMG09.jpg</v>
       </c>
-      <c r="G18" s="14" t="str">
+      <c r="G18" s="3" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H18" s="14" t="str">
+      <c r="H18" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I18" s="14" t="str">
+      <c r="I18" s="3" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J18" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="str">
+      <c r="J18" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" s="104" customFormat="1" ht="27.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="27" t="str">
+      <c r="B19" s="14"/>
+      <c r="C19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="str">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="14" t="str">
+      <c r="G19" s="3" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H19" s="14" t="str">
+      <c r="H19" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I19" s="14" t="str">
+      <c r="I19" s="3" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="str">
+      <c r="J19" s="13"/>
+      <c r="K19" s="106"/>
+    </row>
+    <row r="20" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="str">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="str">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="14" t="str">
+      <c r="G20" s="3" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="14" t="str">
+      <c r="I20" s="3" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
+      <c r="J20" s="4"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="27" t="str">
+      <c r="B21" s="107"/>
+      <c r="C21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="str">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="14" t="str">
+      <c r="G21" s="3" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H21" s="14" t="str">
+      <c r="H21" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="14" t="str">
+      <c r="I21" s="3" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="27" t="str">
+      <c r="B22" s="11"/>
+      <c r="C22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="str">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="14" t="str">
+      <c r="G22" s="3" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="14" t="str">
+      <c r="I22" s="3" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="str">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="14" t="str">
+      <c r="G23" s="3" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H23" s="14" t="str">
+      <c r="H23" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" s="14" t="str">
+      <c r="I23" s="3" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="str">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="str">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="14" t="str">
+      <c r="G24" s="3" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H24" s="14" t="str">
+      <c r="H24" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="14" t="str">
+      <c r="I24" s="3" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="str">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="14" t="str">
+      <c r="G25" s="3" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H25" s="14" t="str">
+      <c r="H25" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I25" s="14" t="str">
+      <c r="I25" s="3" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="str">
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="str">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="14" t="str">
+      <c r="G26" s="3" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H26" s="14" t="str">
+      <c r="H26" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I26" s="14" t="str">
+      <c r="I26" s="3" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="str">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="14" t="str">
+      <c r="G27" s="3" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I27" s="14" t="str">
+      <c r="I27" s="3" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="str">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="14" t="str">
+      <c r="G28" s="3" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H28" s="14" t="str">
+      <c r="H28" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I28" s="14" t="str">
+      <c r="I28" s="3" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="str">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="str">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" s="14" t="str">
+      <c r="G29" s="3" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H29" s="14" t="str">
+      <c r="H29" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" s="14" t="str">
+      <c r="I29" s="3" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="str">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="14" t="str">
+      <c r="G30" s="3" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H30" s="14" t="str">
+      <c r="H30" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="14" t="str">
+      <c r="I30" s="3" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14" t="str">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="14" t="str">
+      <c r="G31" s="3" t="str">
         <f>IF(F31&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H31" s="14" t="str">
+      <c r="H31" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="14" t="str">
+      <c r="I31" s="3" t="str">
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14" t="str">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G32" s="14" t="str">
+      <c r="G32" s="3" t="str">
         <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H32" s="14" t="str">
+      <c r="H32" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" s="14" t="str">
+      <c r="I32" s="3" t="str">
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14" t="str">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" s="14" t="str">
+      <c r="G33" s="3" t="str">
         <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H33" s="14" t="str">
+      <c r="H33" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I33" s="14" t="str">
+      <c r="I33" s="3" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="str">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G34" s="14" t="str">
+      <c r="G34" s="3" t="str">
         <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H34" s="14" t="str">
+      <c r="H34" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I34" s="14" t="str">
+      <c r="I34" s="3" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="str">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" s="14" t="str">
+      <c r="G35" s="3" t="str">
         <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H35" s="14" t="str">
+      <c r="H35" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I35" s="14" t="str">
+      <c r="I35" s="3" t="str">
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14" t="str">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="14" t="str">
+      <c r="G36" s="3" t="str">
         <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H36" s="14" t="str">
+      <c r="H36" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I36" s="14" t="str">
+      <c r="I36" s="3" t="str">
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14" t="str">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" s="14" t="str">
+      <c r="G37" s="3" t="str">
         <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H37" s="14" t="str">
+      <c r="H37" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I37" s="14" t="str">
+      <c r="I37" s="3" t="str">
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="str">
+      <c r="J37" s="5"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="14" t="str">
+      <c r="G38" s="3" t="str">
         <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H38" s="14" t="str">
+      <c r="H38" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I38" s="14" t="str">
+      <c r="I38" s="3" t="str">
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="str">
+      <c r="J38" s="5"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" s="14" t="str">
+      <c r="G39" s="3" t="str">
         <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H39" s="14" t="str">
+      <c r="H39" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" s="14" t="str">
+      <c r="I39" s="3" t="str">
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14" t="str">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" s="14" t="str">
+      <c r="G40" s="3" t="str">
         <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H40" s="14" t="str">
+      <c r="H40" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I40" s="14" t="str">
+      <c r="I40" s="3" t="str">
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14" t="str">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" s="14" t="str">
+      <c r="G41" s="3" t="str">
         <f>IF(F41&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H41" s="14" t="str">
+      <c r="H41" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I41" s="14" t="str">
+      <c r="I41" s="3" t="str">
         <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="str">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" s="14" t="str">
+      <c r="G42" s="3" t="str">
         <f>IF(F42&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H42" s="14" t="str">
+      <c r="H42" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I42" s="14" t="str">
+      <c r="I42" s="3" t="str">
         <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15"/>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="str">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="2"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G43" s="14" t="str">
+      <c r="G43" s="3" t="str">
         <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H43" s="14" t="str">
+      <c r="H43" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I43" s="14" t="str">
+      <c r="I43" s="3" t="str">
         <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="str">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="2"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G44" s="14" t="str">
+      <c r="G44" s="3" t="str">
         <f>IF(F44&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H44" s="14" t="str">
+      <c r="H44" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I44" s="14" t="str">
+      <c r="I44" s="3" t="str">
         <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="str">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G45" s="14" t="str">
+      <c r="G45" s="3" t="str">
         <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H45" s="14" t="str">
+      <c r="H45" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I45" s="14" t="str">
+      <c r="I45" s="3" t="str">
         <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14" t="str">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="2"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G46" s="14" t="str">
+      <c r="G46" s="3" t="str">
         <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H46" s="14" t="str">
+      <c r="H46" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I46" s="14" t="str">
+      <c r="I46" s="3" t="str">
         <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="15"/>
-    </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14" t="str">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G47" s="14" t="str">
+      <c r="G47" s="3" t="str">
         <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H47" s="14" t="str">
+      <c r="H47" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I47" s="14" t="str">
+      <c r="I47" s="3" t="str">
         <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14" t="str">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G48" s="14" t="str">
+      <c r="G48" s="3" t="str">
         <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H48" s="14" t="str">
+      <c r="H48" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I48" s="14" t="str">
+      <c r="I48" s="3" t="str">
         <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14" t="str">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="2"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G49" s="14" t="str">
+      <c r="G49" s="3" t="str">
         <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H49" s="14" t="str">
+      <c r="H49" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I49" s="14" t="str">
+      <c r="I49" s="3" t="str">
         <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14" t="str">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="2"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G50" s="14" t="str">
+      <c r="G50" s="3" t="str">
         <f>IF(F50&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H50" s="14" t="str">
+      <c r="H50" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I50" s="14" t="str">
+      <c r="I50" s="3" t="str">
         <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
-    </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="str">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G51" s="14" t="str">
+      <c r="G51" s="3" t="str">
         <f>IF(F51&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H51" s="14" t="str">
+      <c r="H51" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I51" s="14" t="str">
+      <c r="I51" s="3" t="str">
         <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14" t="str">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G52" s="14" t="str">
+      <c r="G52" s="3" t="str">
         <f>IF(F52&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H52" s="14" t="str">
+      <c r="H52" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I52" s="14" t="str">
+      <c r="I52" s="3" t="str">
         <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14" t="str">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="2"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G53" s="14" t="str">
+      <c r="G53" s="3" t="str">
         <f>IF(F53&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H53" s="14" t="str">
+      <c r="H53" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I53" s="14" t="str">
+      <c r="I53" s="3" t="str">
         <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14" t="str">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G54" s="14" t="str">
+      <c r="G54" s="3" t="str">
         <f>IF(F54&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H54" s="14" t="str">
+      <c r="H54" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I54" s="14" t="str">
+      <c r="I54" s="3" t="str">
         <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14" t="str">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G55" s="14" t="str">
+      <c r="G55" s="3" t="str">
         <f>IF(F55&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H55" s="14" t="str">
+      <c r="H55" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I55" s="14" t="str">
+      <c r="I55" s="3" t="str">
         <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="15"/>
-    </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14" t="str">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="2"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G56" s="14" t="str">
+      <c r="G56" s="3" t="str">
         <f>IF(F56&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H56" s="14" t="str">
+      <c r="H56" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I56" s="14" t="str">
+      <c r="I56" s="3" t="str">
         <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="15"/>
-    </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14" t="str">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="2"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G57" s="14" t="str">
+      <c r="G57" s="3" t="str">
         <f>IF(F57&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H57" s="14" t="str">
+      <c r="H57" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I57" s="14" t="str">
+      <c r="I57" s="3" t="str">
         <f>IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="15"/>
-    </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14" t="str">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="2"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G58" s="14" t="str">
+      <c r="G58" s="3" t="str">
         <f>IF(F58&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H58" s="14" t="str">
+      <c r="H58" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I58" s="14" t="str">
+      <c r="I58" s="3" t="str">
         <f>IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="15"/>
-    </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14" t="str">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="2"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G59" s="14" t="str">
+      <c r="G59" s="3" t="str">
         <f>IF(F59&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H59" s="14" t="str">
+      <c r="H59" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I59" s="14" t="str">
+      <c r="I59" s="3" t="str">
         <f>IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="15"/>
-    </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14" t="str">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="2"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G60" s="14" t="str">
+      <c r="G60" s="3" t="str">
         <f>IF(F60&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H60" s="14" t="str">
+      <c r="H60" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I60" s="14" t="str">
+      <c r="I60" s="3" t="str">
         <f>IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15"/>
-    </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14" t="str">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="2"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G61" s="14" t="str">
+      <c r="G61" s="3" t="str">
         <f>IF(F61&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H61" s="14" t="str">
+      <c r="H61" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I61" s="14" t="str">
+      <c r="I61" s="3" t="str">
         <f>IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14" t="str">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G62" s="14" t="str">
+      <c r="G62" s="3" t="str">
         <f>IF(F62&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H62" s="14" t="str">
+      <c r="H62" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I62" s="14" t="str">
+      <c r="I62" s="3" t="str">
         <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14" t="str">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G63" s="14" t="str">
+      <c r="G63" s="3" t="str">
         <f>IF(F63&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H63" s="14" t="str">
+      <c r="H63" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I63" s="14" t="str">
+      <c r="I63" s="3" t="str">
         <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="15"/>
-    </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14" t="str">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G64" s="14" t="str">
+      <c r="G64" s="3" t="str">
         <f>IF(F64&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H64" s="14" t="str">
+      <c r="H64" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I64" s="14" t="str">
+      <c r="I64" s="3" t="str">
         <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="15"/>
-    </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14" t="str">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G65" s="14" t="str">
+      <c r="G65" s="3" t="str">
         <f>IF(F65&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H65" s="14" t="str">
+      <c r="H65" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I65" s="14" t="str">
+      <c r="I65" s="3" t="str">
         <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14" t="str">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G66" s="14" t="str">
+      <c r="G66" s="3" t="str">
         <f>IF(F66&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H66" s="14" t="str">
+      <c r="H66" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I66" s="14" t="str">
+      <c r="I66" s="3" t="str">
         <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="15"/>
-    </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14" t="str">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G67" s="14" t="str">
+      <c r="G67" s="3" t="str">
         <f>IF(F67&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H67" s="14" t="str">
+      <c r="H67" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I67" s="14" t="str">
+      <c r="I67" s="3" t="str">
         <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="15"/>
-    </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14" t="str">
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G68" s="14" t="str">
+      <c r="G68" s="3" t="str">
         <f>IF(F68&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H68" s="14" t="str">
+      <c r="H68" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I68" s="14" t="str">
+      <c r="I68" s="3" t="str">
         <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="15"/>
-    </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14" t="str">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G69" s="14" t="str">
+      <c r="G69" s="3" t="str">
         <f>IF(F69&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H69" s="14" t="str">
+      <c r="H69" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I69" s="14" t="str">
+      <c r="I69" s="3" t="str">
         <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="15"/>
-    </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14" t="str">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G70" s="14" t="str">
+      <c r="G70" s="3" t="str">
         <f>IF(F70&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H70" s="14" t="str">
+      <c r="H70" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I70" s="14" t="str">
+      <c r="I70" s="3" t="str">
         <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="15"/>
-    </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14" t="str">
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G71" s="14" t="str">
+      <c r="G71" s="3" t="str">
         <f>IF(F71&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H71" s="14" t="str">
+      <c r="H71" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I71" s="14" t="str">
+      <c r="I71" s="3" t="str">
         <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="15"/>
-    </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14" t="str">
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G72" s="14" t="str">
+      <c r="G72" s="3" t="str">
         <f>IF(F72&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H72" s="14" t="str">
+      <c r="H72" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I72" s="14" t="str">
+      <c r="I72" s="3" t="str">
         <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="15"/>
-    </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14" t="str">
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G73" s="14" t="str">
+      <c r="G73" s="3" t="str">
         <f>IF(F73&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H73" s="14" t="str">
+      <c r="H73" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I73" s="14" t="str">
+      <c r="I73" s="3" t="str">
         <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J73" s="14"/>
-      <c r="K73" s="15"/>
-    </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14" t="str">
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G74" s="14" t="str">
+      <c r="G74" s="3" t="str">
         <f>IF(F74&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H74" s="14" t="str">
+      <c r="H74" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I74" s="14" t="str">
+      <c r="I74" s="3" t="str">
         <f>IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J74" s="14"/>
-      <c r="K74" s="15"/>
-    </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14" t="str">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="str">
         <f t="shared" ref="F75:F108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
-      <c r="G75" s="14" t="str">
+      <c r="G75" s="3" t="str">
         <f>IF(F75&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H75" s="14" t="str">
+      <c r="H75" s="3" t="str">
         <f t="shared" ref="H75:H108" si="5">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I75" s="14" t="str">
+      <c r="I75" s="3" t="str">
         <f>IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="15"/>
-    </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14" t="str">
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G76" s="14" t="str">
+      <c r="G76" s="3" t="str">
         <f>IF(F76&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H76" s="14" t="str">
+      <c r="H76" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I76" s="14" t="str">
+      <c r="I76" s="3" t="str">
         <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="15"/>
-    </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14" t="str">
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G77" s="14" t="str">
+      <c r="G77" s="3" t="str">
         <f>IF(F77&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H77" s="14" t="str">
+      <c r="H77" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I77" s="14" t="str">
+      <c r="I77" s="3" t="str">
         <f>IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="15"/>
-    </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14" t="str">
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G78" s="14" t="str">
+      <c r="G78" s="3" t="str">
         <f>IF(F78&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H78" s="14" t="str">
+      <c r="H78" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I78" s="14" t="str">
+      <c r="I78" s="3" t="str">
         <f>IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J78" s="14"/>
-      <c r="K78" s="15"/>
-    </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14" t="str">
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G79" s="14" t="str">
+      <c r="G79" s="3" t="str">
         <f>IF(F79&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H79" s="14" t="str">
+      <c r="H79" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I79" s="14" t="str">
+      <c r="I79" s="3" t="str">
         <f>IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="15"/>
-    </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14" t="str">
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G80" s="14" t="str">
+      <c r="G80" s="3" t="str">
         <f>IF(F80&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H80" s="14" t="str">
+      <c r="H80" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I80" s="14" t="str">
+      <c r="I80" s="3" t="str">
         <f>IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J80" s="14"/>
-      <c r="K80" s="15"/>
-    </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14" t="str">
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G81" s="14" t="str">
+      <c r="G81" s="3" t="str">
         <f>IF(F81&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H81" s="14" t="str">
+      <c r="H81" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I81" s="14" t="str">
+      <c r="I81" s="3" t="str">
         <f>IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J81" s="14"/>
-      <c r="K81" s="15"/>
-    </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14" t="str">
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G82" s="14" t="str">
+      <c r="G82" s="3" t="str">
         <f>IF(F82&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H82" s="14" t="str">
+      <c r="H82" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I82" s="14" t="str">
+      <c r="I82" s="3" t="str">
         <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J82" s="14"/>
-      <c r="K82" s="15"/>
-    </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14" t="str">
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G83" s="14" t="str">
+      <c r="G83" s="3" t="str">
         <f>IF(F83&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H83" s="14" t="str">
+      <c r="H83" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I83" s="14" t="str">
+      <c r="I83" s="3" t="str">
         <f>IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J83" s="14"/>
-      <c r="K83" s="15"/>
-    </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14" t="str">
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G84" s="14" t="str">
+      <c r="G84" s="3" t="str">
         <f>IF(F84&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H84" s="14" t="str">
+      <c r="H84" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I84" s="14" t="str">
+      <c r="I84" s="3" t="str">
         <f>IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J84" s="14"/>
-      <c r="K84" s="15"/>
-    </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14" t="str">
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G85" s="14" t="str">
+      <c r="G85" s="3" t="str">
         <f>IF(F85&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H85" s="14" t="str">
+      <c r="H85" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I85" s="14" t="str">
+      <c r="I85" s="3" t="str">
         <f>IF(OR(B85&lt;&gt;"",J85&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J85" s="14"/>
-      <c r="K85" s="15"/>
-    </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14" t="str">
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G86" s="14" t="str">
+      <c r="G86" s="3" t="str">
         <f>IF(F86&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H86" s="14" t="str">
+      <c r="H86" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I86" s="14" t="str">
+      <c r="I86" s="3" t="str">
         <f>IF(OR(B86&lt;&gt;"",J86&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J86" s="14"/>
-      <c r="K86" s="15"/>
-    </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14" t="str">
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G87" s="14" t="str">
+      <c r="G87" s="3" t="str">
         <f>IF(F87&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H87" s="14" t="str">
+      <c r="H87" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I87" s="14" t="str">
+      <c r="I87" s="3" t="str">
         <f>IF(OR(B87&lt;&gt;"",J87&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="15"/>
-    </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14" t="str">
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G88" s="14" t="str">
+      <c r="G88" s="3" t="str">
         <f>IF(F88&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H88" s="14" t="str">
+      <c r="H88" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I88" s="14" t="str">
+      <c r="I88" s="3" t="str">
         <f>IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J88" s="14"/>
-      <c r="K88" s="15"/>
-    </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14" t="str">
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G89" s="14" t="str">
+      <c r="G89" s="3" t="str">
         <f>IF(F89&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H89" s="14" t="str">
+      <c r="H89" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I89" s="14" t="str">
+      <c r="I89" s="3" t="str">
         <f>IF(OR(B89&lt;&gt;"",J89&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J89" s="14"/>
-      <c r="K89" s="15"/>
-    </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14" t="str">
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G90" s="14" t="str">
+      <c r="G90" s="3" t="str">
         <f>IF(F90&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H90" s="14" t="str">
+      <c r="H90" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I90" s="14" t="str">
+      <c r="I90" s="3" t="str">
         <f>IF(OR(B90&lt;&gt;"",J90&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J90" s="14"/>
-      <c r="K90" s="15"/>
-    </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14" t="str">
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G91" s="14" t="str">
+      <c r="G91" s="3" t="str">
         <f>IF(F91&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H91" s="14" t="str">
+      <c r="H91" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I91" s="14" t="str">
+      <c r="I91" s="3" t="str">
         <f>IF(OR(B91&lt;&gt;"",J91&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J91" s="14"/>
-      <c r="K91" s="15"/>
-    </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14" t="str">
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G92" s="14" t="str">
+      <c r="G92" s="3" t="str">
         <f>IF(F92&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H92" s="14" t="str">
+      <c r="H92" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I92" s="14" t="str">
+      <c r="I92" s="3" t="str">
         <f>IF(OR(B92&lt;&gt;"",J92&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J92" s="14"/>
-      <c r="K92" s="15"/>
-    </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14" t="str">
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G93" s="14" t="str">
+      <c r="G93" s="3" t="str">
         <f>IF(F93&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H93" s="14" t="str">
+      <c r="H93" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I93" s="14" t="str">
+      <c r="I93" s="3" t="str">
         <f>IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J93" s="14"/>
-      <c r="K93" s="15"/>
-    </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14" t="str">
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G94" s="14" t="str">
+      <c r="G94" s="3" t="str">
         <f>IF(F94&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H94" s="14" t="str">
+      <c r="H94" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I94" s="14" t="str">
+      <c r="I94" s="3" t="str">
         <f>IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J94" s="14"/>
-      <c r="K94" s="15"/>
-    </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14" t="str">
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G95" s="14" t="str">
+      <c r="G95" s="3" t="str">
         <f>IF(F95&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H95" s="14" t="str">
+      <c r="H95" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I95" s="14" t="str">
+      <c r="I95" s="3" t="str">
         <f>IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J95" s="14"/>
-      <c r="K95" s="15"/>
-    </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14" t="str">
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G96" s="14" t="str">
+      <c r="G96" s="3" t="str">
         <f>IF(F96&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H96" s="14" t="str">
+      <c r="H96" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I96" s="14" t="str">
+      <c r="I96" s="3" t="str">
         <f>IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J96" s="14"/>
-      <c r="K96" s="15"/>
-    </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14" t="str">
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G97" s="14" t="str">
+      <c r="G97" s="3" t="str">
         <f>IF(F97&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H97" s="14" t="str">
+      <c r="H97" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I97" s="14" t="str">
+      <c r="I97" s="3" t="str">
         <f>IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="15"/>
-    </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14" t="str">
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G98" s="14" t="str">
+      <c r="G98" s="3" t="str">
         <f>IF(F98&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H98" s="14" t="str">
+      <c r="H98" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I98" s="14" t="str">
+      <c r="I98" s="3" t="str">
         <f>IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J98" s="14"/>
-      <c r="K98" s="15"/>
-    </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14" t="str">
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G99" s="14" t="str">
+      <c r="G99" s="3" t="str">
         <f>IF(F99&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H99" s="14" t="str">
+      <c r="H99" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I99" s="14" t="str">
+      <c r="I99" s="3" t="str">
         <f>IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="15"/>
-    </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14" t="str">
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G100" s="14" t="str">
+      <c r="G100" s="3" t="str">
         <f>IF(F100&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H100" s="14" t="str">
+      <c r="H100" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I100" s="14" t="str">
+      <c r="I100" s="3" t="str">
         <f>IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J100" s="14"/>
-      <c r="K100" s="15"/>
-    </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14" t="str">
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G101" s="14" t="str">
+      <c r="G101" s="3" t="str">
         <f>IF(F101&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H101" s="14" t="str">
+      <c r="H101" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I101" s="14" t="str">
+      <c r="I101" s="3" t="str">
         <f>IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J101" s="14"/>
-      <c r="K101" s="15"/>
-    </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14" t="str">
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G102" s="14" t="str">
+      <c r="G102" s="3" t="str">
         <f>IF(F102&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H102" s="14" t="str">
+      <c r="H102" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I102" s="14" t="str">
+      <c r="I102" s="3" t="str">
         <f>IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J102" s="14"/>
-      <c r="K102" s="15"/>
-    </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14" t="str">
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G103" s="14" t="str">
+      <c r="G103" s="3" t="str">
         <f>IF(F103&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H103" s="14" t="str">
+      <c r="H103" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I103" s="14" t="str">
+      <c r="I103" s="3" t="str">
         <f>IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="15"/>
-    </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14" t="str">
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G104" s="14" t="str">
+      <c r="G104" s="3" t="str">
         <f>IF(F104&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H104" s="14" t="str">
+      <c r="H104" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I104" s="14" t="str">
+      <c r="I104" s="3" t="str">
         <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="15"/>
-    </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14" t="str">
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G105" s="14" t="str">
+      <c r="G105" s="3" t="str">
         <f>IF(F105&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H105" s="14" t="str">
+      <c r="H105" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I105" s="14" t="str">
+      <c r="I105" s="3" t="str">
         <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J105" s="14"/>
-      <c r="K105" s="15"/>
-    </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14" t="str">
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G106" s="14" t="str">
+      <c r="G106" s="3" t="str">
         <f>IF(F106&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H106" s="14" t="str">
+      <c r="H106" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I106" s="14" t="str">
+      <c r="I106" s="3" t="str">
         <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="15"/>
-    </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14" t="str">
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G107" s="14" t="str">
+      <c r="G107" s="3" t="str">
         <f>IF(F107&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H107" s="14" t="str">
+      <c r="H107" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I107" s="14" t="str">
+      <c r="I107" s="3" t="str">
         <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J107" s="14"/>
-      <c r="K107" s="15"/>
-    </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14" t="str">
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G108" s="14" t="str">
+      <c r="G108" s="3" t="str">
         <f>IF(F108&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H108" s="14" t="str">
+      <c r="H108" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I108" s="14" t="str">
+      <c r="I108" s="3" t="str">
         <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="15"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5363,6 +5545,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5380,541 +5563,541 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11" style="38"/>
-    <col min="3" max="3" width="13.875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="38" customWidth="1"/>
-    <col min="5" max="7" width="11" style="38"/>
-    <col min="8" max="11" width="11" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="38"/>
+    <col min="1" max="1" width="72.25" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16"/>
+    <col min="3" max="3" width="13.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="16" customWidth="1"/>
+    <col min="5" max="7" width="11" style="16"/>
+    <col min="8" max="11" width="11" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="105" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+      <c r="A3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="48"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="25"/>
+      <c r="H3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+      <c r="A4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="H4" s="38" t="s">
+      <c r="F4" s="25"/>
+      <c r="H4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="16">
         <v>1</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="114" t="str">
+      <c r="D5" s="76" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="38" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="25"/>
+      <c r="H5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="H6" s="38" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="H6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="16">
         <v>3</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="78" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="100" t="str">
+      <c r="D7" s="62" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
-      <c r="H7" s="38" t="s">
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="H7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="16">
         <v>4</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="I8" s="38" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="I8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="16">
         <v>5</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="I9" s="38" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="I9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="16">
         <v>6</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="I10" s="38" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="I10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="16">
         <v>7</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="38" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="16">
         <v>8</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="38" t="s">
+    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="16">
         <v>9</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="I13" s="38" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="I13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="16">
         <v>10</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="I14" s="38" t="s">
+    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="I14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="16">
         <v>11</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="105" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="J15" s="38">
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="J15" s="16">
         <v>12</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="16">
         <v>13</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:11" ht="32.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="44" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="108" t="str">
+      <c r="D17" s="70" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="J17" s="38">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="J17" s="16">
         <v>14</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="78" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="100" t="str">
+      <c r="D18" s="62" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
-      <c r="J18" s="38">
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="J18" s="16">
         <v>15</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="H19" s="38">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="H19" s="16">
         <v>3</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="16">
         <v>16</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="H20" s="38">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="H20" s="16">
         <v>4</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="16">
         <v>5</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="16">
         <v>4</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="38" t="str">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H21" s="16" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="38" t="str">
+      <c r="I21" s="16" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="38" t="str">
+      <c r="J21" s="16" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="16">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="38">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K22" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="38">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K23" s="16">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="38">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K24" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="38">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K25" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="38">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K26" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="38">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K27" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="38">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K28" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="38">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K29" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="38">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K30" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="38">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K31" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="38">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K32" s="16">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="38">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K33" s="16">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="38">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K34" s="16">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="38">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K35" s="16">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="38">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K36" s="16">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="38">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K37" s="16">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="38">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K38" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="38">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K39" s="16">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="38">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K40" s="16">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="38">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K41" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="38">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K42" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="38">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K43" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="38">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K44" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="38" t="str">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K45" s="16" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -5947,13 +6130,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>483531</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1019724</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>713328</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5967,15 +6150,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1019724</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>483531</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>828226</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>713328</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5989,15 +6172,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>9575</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>483531</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:colOff>837801</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>713328</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6011,15 +6194,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>9575</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>483531</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:colOff>837801</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>713328</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6033,15 +6216,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>19150</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>9575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1038873</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>239372</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6055,15 +6238,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1048448</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>9575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>866526</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>239372</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6077,15 +6260,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>19150</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>9575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>9575</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>239372</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6107,561 +6290,561 @@
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21" style="38" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="38" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="38"/>
-    <col min="5" max="5" width="11.75" style="38" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11" style="38" customWidth="1"/>
-    <col min="8" max="9" width="22.25" style="38" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="38" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="38" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="38"/>
+    <col min="1" max="1" width="21" style="16" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="16"/>
+    <col min="5" max="5" width="11.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11" style="16" customWidth="1"/>
+    <col min="8" max="9" width="22.25" style="16" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="16" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="57" t="s">
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="60" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="59" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:11" s="32" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A7" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:11" s="59" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="60"/>
-    </row>
-    <row r="9" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="60"/>
-    </row>
-    <row r="10" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-    </row>
-    <row r="11" spans="1:11" s="59" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" s="32" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A11" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="60"/>
-    </row>
-    <row r="12" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="60"/>
-    </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+      <c r="A13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="38" t="s">
+      <c r="J13" s="36"/>
+      <c r="K13" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A14" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60" t="s">
+      <c r="G14" s="36"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="63"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+      <c r="A15" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="60" t="s">
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="38" t="s">
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+    <row r="16" spans="1:11" ht="95" x14ac:dyDescent="0.5">
+      <c r="A16" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="65" t="s">
+      <c r="I16" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="66" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A17" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="67" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="68" t="s">
+      <c r="J17" s="33"/>
+      <c r="K17" s="41" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A22" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A23" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-    </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+    </row>
+    <row r="24" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+      <c r="A24" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-    </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+      <c r="A26" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC30.xlsx
+++ b/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Matematicas\fuentes\contenidos\grado04\guion01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Copia\JOHANNA\Documents\Documents\Matematicas\fuentes\contenidos\grado04\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20492" windowHeight="7758" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="168">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -558,10 +558,6 @@
     <t>IMG06</t>
   </si>
   <si>
-    <t>117879463
-(Ver recurso MA_04_01_CO_REC30, pág. 4)</t>
-  </si>
-  <si>
     <t>Conjunto G representado en Diagrama de Venn con la fotografía de un gerente.</t>
   </si>
   <si>
@@ -574,20 +570,13 @@
     <t>Ilustración de un conjunto en Diagrama de Venn en el que se encuentran los nombres y apellidos de algunos estudiantes.</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC30, pág. 5)</t>
-  </si>
-  <si>
     <t>IMG09</t>
   </si>
   <si>
     <t>Conjunto de útiles escolares.</t>
   </si>
   <si>
-    <t>(Ver Observaciones)</t>
-  </si>
-  <si>
-    <t>129916589
-(Ver Observaciones)</t>
+    <t>(Ver la imagen en  Observaciones, última columna de esta tabla)</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1287,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1465,7 +1454,64 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,6 +1520,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,6 +1533,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1539,90 +1609,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1740,7 +1726,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1767,8 +1753,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3968750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>158909</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>500221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1811,8 +1797,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1463040</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>158910</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>500223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1848,15 +1834,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1047750</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>182562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2279650</xdr:colOff>
+      <xdr:colOff>3327400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1306830</xdr:rowOff>
+      <xdr:rowOff>1489392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1878,7 +1864,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16432869" y="2617131"/>
+          <a:off x="17406938" y="3159125"/>
           <a:ext cx="2279650" cy="1306830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1895,15 +1881,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>111124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2362835</xdr:colOff>
+      <xdr:colOff>3124835</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1327150</xdr:rowOff>
+      <xdr:rowOff>1438274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1925,8 +1911,149 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16432869" y="4575989"/>
+          <a:off x="17121188" y="5270499"/>
           <a:ext cx="2362835" cy="1327150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3006725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2007235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17454563" y="6802438"/>
+          <a:ext cx="1911350" cy="1943735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3576320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1923733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16978313" y="9548813"/>
+          <a:ext cx="2957195" cy="1852295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3702685</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2319972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16867188" y="11604625"/>
+          <a:ext cx="3194685" cy="2232660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1949,15 +2076,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19150</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9575</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038873</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>239372</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2004,15 +2131,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1048448</xdr:colOff>
+          <xdr:colOff>1047750</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9575</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866526</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>239372</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2059,15 +2186,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19150</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9575</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9575</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>239372</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2116,13 +2243,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019724</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2169,15 +2296,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019724</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828226</xdr:colOff>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2224,15 +2351,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9575</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2279,15 +2406,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9575</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2658,166 +2785,166 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.2" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="81" customWidth="1"/>
-    <col min="2" max="2" width="21" style="81" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="81" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="81" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="81" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="81" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="81" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="81" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="81" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="86" customWidth="1"/>
-    <col min="11" max="11" width="56.4375" style="86" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="81" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="81" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="81"/>
+    <col min="1" max="1" width="7.875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="21" style="57" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="57" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="57" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="57" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="57" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="57" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="60" customWidth="1"/>
+    <col min="11" max="11" width="56.5" style="60" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="57" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="57" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
-      <c r="A2" s="80"/>
-      <c r="B2" s="83" t="s">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="84"/>
+      <c r="F2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="87" t="s">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="85">
         <v>4</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+      <c r="D3" s="86"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
-      <c r="A4" s="80"/>
-      <c r="B4" s="87" t="s">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="92" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="80"/>
-      <c r="B5" s="94" t="s">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="56"/>
+      <c r="B5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="97" t="str">
+      <c r="D5" s="88"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="65" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="98"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="80"/>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
       <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:16" s="105" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="59" t="s">
+    <row r="8" spans="1:16" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-    </row>
-    <row r="9" spans="1:16" ht="26.05" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -2852,13 +2979,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="104" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" s="72" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2891,12 +3018,12 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:16" s="104" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" s="72" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="9" t="str">
         <f t="shared" ref="C11:C22" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2929,12 +3056,12 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:16" s="104" customFormat="1" ht="114.6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:16" s="72" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2967,7 +3094,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:16" s="104" customFormat="1" ht="39.6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" s="72" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f t="shared" ref="A13:A30" si="3">IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(LEFT(A12,3),IF(MID(A12,4,2)+1&lt;10,CONCATENATE("0",MID(A12,4,2)+1))),"")</f>
         <v>IMG04</v>
@@ -3006,13 +3133,13 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:16" s="104" customFormat="1" ht="124.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" s="72" customFormat="1" ht="124.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>170</v>
+      <c r="B14" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="C14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3045,12 +3172,12 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:16" s="104" customFormat="1" ht="52.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16" s="72" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>161</v>
+      <c r="B15" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="C15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3079,11 +3206,11 @@
         <v/>
       </c>
       <c r="J15" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:16" s="104" customFormat="1" ht="52.8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" s="72" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
@@ -3118,16 +3245,16 @@
         <v/>
       </c>
       <c r="J16" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="74"/>
+    </row>
+    <row r="17" spans="1:11" s="72" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="K16" s="106"/>
-    </row>
-    <row r="17" spans="1:11" s="104" customFormat="1" ht="52.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>166</v>
+      <c r="B17" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3156,16 +3283,16 @@
         <v/>
       </c>
       <c r="J17" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" s="72" customFormat="1" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11" s="104" customFormat="1" ht="39.6" x14ac:dyDescent="0.5">
-      <c r="A18" s="54" t="s">
+      <c r="B18" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>166</v>
       </c>
       <c r="C18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3194,11 +3321,11 @@
         <v/>
       </c>
       <c r="J18" s="55" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" s="104" customFormat="1" ht="27.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" s="72" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3227,9 +3354,9 @@
         <v/>
       </c>
       <c r="J19" s="13"/>
-      <c r="K19" s="106"/>
-    </row>
-    <row r="20" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K19" s="74"/>
+    </row>
+    <row r="20" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3260,12 +3387,12 @@
       <c r="J20" s="4"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B21" s="107"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3291,7 +3418,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3322,7 +3449,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3350,7 +3477,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3378,7 +3505,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3406,7 +3533,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3434,7 +3561,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3462,7 +3589,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3490,7 +3617,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3518,7 +3645,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3546,7 +3673,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3571,7 +3698,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3596,7 +3723,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3621,7 +3748,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3646,7 +3773,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3671,7 +3798,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3696,7 +3823,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -3721,7 +3848,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3746,7 +3873,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -3771,7 +3898,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -3796,7 +3923,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -3821,7 +3948,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -3846,7 +3973,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -3871,7 +3998,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -3896,7 +4023,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -3921,7 +4048,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3946,7 +4073,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3971,7 +4098,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -3996,7 +4123,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -4021,7 +4148,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -4046,7 +4173,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -4071,7 +4198,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -4096,7 +4223,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -4121,7 +4248,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -4146,7 +4273,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -4171,7 +4298,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -4196,7 +4323,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -4221,7 +4348,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -4246,7 +4373,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4271,7 +4398,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4296,7 +4423,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -4321,7 +4448,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4346,7 +4473,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4371,7 +4498,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4396,7 +4523,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4421,7 +4548,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4446,7 +4573,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4471,7 +4598,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4496,7 +4623,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4521,7 +4648,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4546,7 +4673,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4571,7 +4698,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4596,7 +4723,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4621,7 +4748,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4646,7 +4773,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4671,7 +4798,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4696,7 +4823,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4721,7 +4848,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4746,7 +4873,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4771,7 +4898,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4796,7 +4923,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4821,7 +4948,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4846,7 +4973,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4871,7 +4998,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4896,7 +5023,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4921,7 +5048,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4946,7 +5073,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4971,7 +5098,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4996,7 +5123,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5021,7 +5148,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5046,7 +5173,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5071,7 +5198,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5096,7 +5223,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5121,7 +5248,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5146,7 +5273,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5171,7 +5298,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5196,7 +5323,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5221,7 +5348,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5246,7 +5373,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5271,7 +5398,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5296,7 +5423,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5321,7 +5448,7 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5346,7 +5473,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5371,7 +5498,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5396,7 +5523,7 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5421,7 +5548,7 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5446,7 +5573,7 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5471,7 +5598,7 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5563,7 +5690,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.25" style="16" customWidth="1"/>
     <col min="2" max="2" width="11" style="16"/>
@@ -5574,38 +5701,38 @@
     <col min="12" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="24"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="24"/>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="25"/>
       <c r="H3" s="16" t="s">
         <v>19</v>
@@ -5620,7 +5747,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>45</v>
       </c>
@@ -5648,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>46</v>
       </c>
@@ -5656,11 +5783,11 @@
       <c r="C5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="76" t="str">
+      <c r="D5" s="103" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="25"/>
       <c r="H5" s="16" t="s">
         <v>23</v>
@@ -5675,7 +5802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -5697,7 +5824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
@@ -5705,12 +5832,12 @@
       <c r="C7" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="62" t="str">
+      <c r="D7" s="89" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
       <c r="H7" s="16" t="s">
         <v>25</v>
       </c>
@@ -5724,7 +5851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>54</v>
       </c>
@@ -5743,7 +5870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
@@ -5762,7 +5889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>37</v>
       </c>
@@ -5781,7 +5908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="16" t="s">
         <v>33</v>
       </c>
@@ -5792,7 +5919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="16" t="s">
         <v>38</v>
       </c>
@@ -5803,15 +5930,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A13" s="64" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
       <c r="I13" s="16" t="s">
         <v>34</v>
       </c>
@@ -5822,7 +5949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -5839,17 +5966,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="24"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
       <c r="J15" s="16">
         <v>12</v>
       </c>
@@ -5857,7 +5984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>48</v>
       </c>
@@ -5881,7 +6008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>45</v>
       </c>
@@ -5889,12 +6016,12 @@
       <c r="C17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="70" t="str">
+      <c r="D17" s="97" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
       <c r="J17" s="16">
         <v>14</v>
       </c>
@@ -5902,7 +6029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
@@ -5910,12 +6037,12 @@
       <c r="C18" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="62" t="str">
+      <c r="D18" s="89" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
       <c r="J18" s="16">
         <v>15</v>
       </c>
@@ -5923,7 +6050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
@@ -5942,7 +6069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>52</v>
       </c>
@@ -5964,7 +6091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="16" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -5981,122 +6108,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="16">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="16">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="16">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="16">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="16">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="16">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="16">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="16">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="16">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="16" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6130,13 +6257,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019724</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6150,15 +6277,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019724</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828226</xdr:colOff>
+                    <xdr:colOff>828675</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6172,15 +6299,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9575</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6194,15 +6321,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9575</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6216,15 +6343,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19150</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9575</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038873</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>239372</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6238,15 +6365,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1048448</xdr:colOff>
+                    <xdr:colOff>1047750</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9575</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866526</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>239372</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6260,15 +6387,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19150</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9575</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9575</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>239372</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6290,7 +6417,7 @@
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="16" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="16" customWidth="1"/>
@@ -6305,42 +6432,42 @@
     <col min="12" max="16384" width="10.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="30" t="s">
         <v>66</v>
       </c>
@@ -6351,7 +6478,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
@@ -6375,7 +6502,7 @@
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>58</v>
       </c>
@@ -6403,7 +6530,7 @@
       </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>81</v>
       </c>
@@ -6431,7 +6558,7 @@
       </c>
       <c r="J5" s="35"/>
     </row>
-    <row r="6" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>59</v>
       </c>
@@ -6463,7 +6590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="32" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>85</v>
       </c>
@@ -6491,7 +6618,7 @@
       </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>87</v>
       </c>
@@ -6519,7 +6646,7 @@
       </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>89</v>
       </c>
@@ -6547,7 +6674,7 @@
       </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>91</v>
       </c>
@@ -6571,7 +6698,7 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:11" s="32" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>94</v>
       </c>
@@ -6599,7 +6726,7 @@
       </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>96</v>
       </c>
@@ -6627,7 +6754,7 @@
       </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>98</v>
       </c>
@@ -6654,7 +6781,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>102</v>
       </c>
@@ -6678,7 +6805,7 @@
       </c>
       <c r="J14" s="36"/>
     </row>
-    <row r="15" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>104</v>
       </c>
@@ -6705,7 +6832,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="95" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>108</v>
       </c>
@@ -6734,7 +6861,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>113</v>
       </c>
@@ -6763,12 +6890,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>120</v>
       </c>
@@ -6781,7 +6908,7 @@
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
         <v>123</v>
       </c>
@@ -6794,7 +6921,7 @@
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>126</v>
       </c>
@@ -6807,7 +6934,7 @@
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
     </row>
-    <row r="24" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
         <v>129</v>
       </c>
@@ -6820,7 +6947,7 @@
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>132</v>
       </c>
@@ -6833,7 +6960,7 @@
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
     </row>
-    <row r="26" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>135</v>
       </c>

--- a/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC30.xlsx
+++ b/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC30.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Copia\JOHANNA\Documents\Documents\Matematicas\fuentes\contenidos\grado04\guion01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -991,11 +986,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1004,7 +999,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1012,17 +1007,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1032,7 +1027,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1040,12 +1035,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,18 +1049,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,11 +1090,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1109,10 +1104,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1122,7 +1117,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1196,16 +1191,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,23 +1208,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2076,15 +2071,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2097,7 +2092,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2105,20 +2100,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2131,15 +2112,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2152,7 +2133,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2160,20 +2141,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2186,15 +2153,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2207,7 +2174,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2215,20 +2182,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2243,13 +2196,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2262,7 +2215,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2270,20 +2223,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2296,15 +2235,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>825500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2317,7 +2256,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2325,20 +2264,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2351,15 +2276,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2372,7 +2297,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2380,20 +2305,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2406,15 +2317,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2427,7 +2338,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2435,20 +2346,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2781,32 +2678,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="57" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="57" customWidth="1"/>
     <col min="2" max="2" width="21" style="57" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="57" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="57" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="57" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="57" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="57" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="57" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="57" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="60" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="60" customWidth="1"/>
     <col min="11" max="11" width="56.5" style="60" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="57" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="57" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="57" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="57"/>
+    <col min="14" max="16384" width="10.83203125" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="56"/>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -2818,7 +2715,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="56"/>
       <c r="B2" s="59" t="s">
         <v>0</v>
@@ -2835,7 +2732,7 @@
       <c r="I2" s="58"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="56"/>
       <c r="B3" s="61" t="s">
         <v>9</v>
@@ -2850,7 +2747,7 @@
       <c r="I3" s="58"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="56"/>
       <c r="B4" s="61" t="s">
         <v>55</v>
@@ -2871,7 +2768,7 @@
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="A5" s="56"/>
       <c r="B5" s="64" t="s">
         <v>2</v>
@@ -2893,7 +2790,7 @@
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="56"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -2906,7 +2803,7 @@
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="56"/>
       <c r="B7" s="17" t="s">
         <v>41</v>
@@ -2924,7 +2821,7 @@
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:16" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="73" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="69"/>
       <c r="B8" s="69"/>
       <c r="C8" s="69"/>
@@ -2944,7 +2841,7 @@
       <c r="O8" s="57"/>
       <c r="P8" s="57"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +2876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="72" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="72" customFormat="1" ht="40.5">
       <c r="A10" s="2" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -3018,7 +2915,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:16" s="72" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="72" customFormat="1" ht="40.5">
       <c r="A11" s="2" t="s">
         <v>153</v>
       </c>
@@ -3056,7 +2953,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:16" s="72" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="72" customFormat="1" ht="131.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>156</v>
       </c>
@@ -3094,7 +2991,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:16" s="72" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="72" customFormat="1" ht="40.5">
       <c r="A13" s="2" t="str">
         <f t="shared" ref="A13:A30" si="3">IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(LEFT(A12,3),IF(MID(A12,4,2)+1&lt;10,CONCATENATE("0",MID(A12,4,2)+1))),"")</f>
         <v>IMG04</v>
@@ -3133,7 +3030,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:16" s="72" customFormat="1" ht="124.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="72" customFormat="1" ht="125" customHeight="1">
       <c r="A14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
@@ -3172,7 +3069,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:16" s="72" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="72" customFormat="1" ht="162.75" customHeight="1">
       <c r="A15" s="54" t="s">
         <v>160</v>
       </c>
@@ -3210,7 +3107,7 @@
       </c>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:16" s="72" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="72" customFormat="1" ht="53.25" customHeight="1">
       <c r="A16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
@@ -3249,7 +3146,7 @@
       </c>
       <c r="K16" s="74"/>
     </row>
-    <row r="17" spans="1:11" s="72" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="72" customFormat="1" ht="160.5" customHeight="1">
       <c r="A17" s="54" t="s">
         <v>163</v>
       </c>
@@ -3287,7 +3184,7 @@
       </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="72" customFormat="1" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="72" customFormat="1" ht="192.75" customHeight="1">
       <c r="A18" s="54" t="s">
         <v>165</v>
       </c>
@@ -3325,7 +3222,7 @@
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" s="72" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="72" customFormat="1" ht="27" customHeight="1">
       <c r="A19" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3356,7 +3253,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="74"/>
     </row>
-    <row r="20" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A20" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3387,7 +3284,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A21" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3418,7 +3315,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A22" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3449,7 +3346,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A23" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3477,7 +3374,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A24" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3505,7 +3402,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A25" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3533,7 +3430,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A26" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3561,7 +3458,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A27" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3589,7 +3486,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A28" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3617,7 +3514,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A29" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3645,7 +3542,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="72" customFormat="1" ht="15">
       <c r="A30" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3673,7 +3570,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="72" customFormat="1">
       <c r="A31" s="2"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3698,7 +3595,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="72" customFormat="1">
       <c r="A32" s="2"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3723,7 +3620,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="72" customFormat="1">
       <c r="A33" s="2"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3748,7 +3645,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="72" customFormat="1">
       <c r="A34" s="2"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3773,7 +3670,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="72" customFormat="1">
       <c r="A35" s="2"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3798,7 +3695,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="72" customFormat="1">
       <c r="A36" s="2"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3823,7 +3720,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="72" customFormat="1">
       <c r="A37" s="2"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -3848,7 +3745,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="72" customFormat="1">
       <c r="A38" s="2"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3873,7 +3770,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="72" customFormat="1">
       <c r="A39" s="2"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -3898,7 +3795,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="72" customFormat="1">
       <c r="A40" s="2"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -3923,7 +3820,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="72" customFormat="1">
       <c r="A41" s="2"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -3948,7 +3845,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="72" customFormat="1">
       <c r="A42" s="2"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -3973,7 +3870,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="72" customFormat="1">
       <c r="A43" s="2"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -3998,7 +3895,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="72" customFormat="1">
       <c r="A44" s="2"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -4023,7 +3920,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="72" customFormat="1">
       <c r="A45" s="2"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -4048,7 +3945,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="72" customFormat="1">
       <c r="A46" s="2"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -4073,7 +3970,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="72" customFormat="1">
       <c r="A47" s="2"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -4098,7 +3995,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="72" customFormat="1">
       <c r="A48" s="2"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -4123,7 +4020,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="72" customFormat="1">
       <c r="A49" s="2"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -4148,7 +4045,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="72" customFormat="1">
       <c r="A50" s="2"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -4173,7 +4070,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="72" customFormat="1">
       <c r="A51" s="2"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -4198,7 +4095,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="72" customFormat="1">
       <c r="A52" s="2"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -4223,7 +4120,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="72" customFormat="1">
       <c r="A53" s="2"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -4248,7 +4145,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="72" customFormat="1">
       <c r="A54" s="2"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -4273,7 +4170,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="72" customFormat="1">
       <c r="A55" s="2"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -4298,7 +4195,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="72" customFormat="1">
       <c r="A56" s="2"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -4323,7 +4220,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="72" customFormat="1">
       <c r="A57" s="2"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -4348,7 +4245,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="72" customFormat="1">
       <c r="A58" s="2"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -4373,7 +4270,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="72" customFormat="1">
       <c r="A59" s="2"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4398,7 +4295,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="72" customFormat="1">
       <c r="A60" s="2"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4423,7 +4320,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="72" customFormat="1">
       <c r="A61" s="2"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -4448,7 +4345,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="72" customFormat="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4473,7 +4370,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="72" customFormat="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4498,7 +4395,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="72" customFormat="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4523,7 +4420,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="72" customFormat="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4548,7 +4445,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="72" customFormat="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4573,7 +4470,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="72" customFormat="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4598,7 +4495,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="72" customFormat="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4623,7 +4520,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="72" customFormat="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4648,7 +4545,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="72" customFormat="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4673,7 +4570,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="72" customFormat="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4698,7 +4595,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="72" customFormat="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4723,7 +4620,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="72" customFormat="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4748,7 +4645,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="72" customFormat="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4773,7 +4670,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="72" customFormat="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4798,7 +4695,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="72" customFormat="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4823,7 +4720,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="72" customFormat="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4848,7 +4745,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="72" customFormat="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4873,7 +4770,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="72" customFormat="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4898,7 +4795,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="72" customFormat="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4923,7 +4820,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="72" customFormat="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4948,7 +4845,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="72" customFormat="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4973,7 +4870,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="72" customFormat="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4998,7 +4895,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="72" customFormat="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5023,7 +4920,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="72" customFormat="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5048,7 +4945,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="72" customFormat="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5073,7 +4970,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="72" customFormat="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5098,7 +4995,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="72" customFormat="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5123,7 +5020,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="72" customFormat="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5148,7 +5045,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="72" customFormat="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5173,7 +5070,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="72" customFormat="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5198,7 +5095,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="72" customFormat="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5223,7 +5120,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="72" customFormat="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5248,7 +5145,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="72" customFormat="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5273,7 +5170,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="72" customFormat="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5298,7 +5195,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="72" customFormat="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5323,7 +5220,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="72" customFormat="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5348,7 +5245,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="72" customFormat="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5373,7 +5270,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="72" customFormat="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5398,7 +5295,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="72" customFormat="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5423,7 +5320,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="72" customFormat="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5448,7 +5345,7 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="72" customFormat="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5473,7 +5370,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="72" customFormat="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5498,7 +5395,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="72" customFormat="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5523,7 +5420,7 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="72" customFormat="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5548,7 +5445,7 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="72" customFormat="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5573,7 +5470,7 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="72" customFormat="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5598,7 +5495,7 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="72" customFormat="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5671,8 +5568,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5683,25 +5579,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11" style="16"/>
-    <col min="3" max="3" width="13.875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="16" customWidth="1"/>
-    <col min="5" max="7" width="11" style="16"/>
+    <col min="1" max="1" width="72.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="16"/>
+    <col min="3" max="3" width="13.83203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="16" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="16"/>
     <col min="8" max="11" width="11" style="16" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="16"/>
+    <col min="12" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="91" t="s">
         <v>39</v>
       </c>
@@ -5711,7 +5607,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="93"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="23" t="s">
         <v>43</v>
       </c>
@@ -5723,7 +5619,7 @@
       <c r="E2" s="96"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="63">
       <c r="A3" s="26" t="s">
         <v>44</v>
       </c>
@@ -5747,7 +5643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="23" t="s">
         <v>45</v>
       </c>
@@ -5775,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="26" t="s">
         <v>46</v>
       </c>
@@ -5802,7 +5698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -5824,7 +5720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="48" thickBot="1">
       <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
@@ -5851,7 +5747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="47.25">
       <c r="A8" s="26" t="s">
         <v>54</v>
       </c>
@@ -5870,7 +5766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
@@ -5889,7 +5785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1">
       <c r="A10" s="27" t="s">
         <v>37</v>
       </c>
@@ -5908,7 +5804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="I11" s="16" t="s">
         <v>33</v>
       </c>
@@ -5919,7 +5815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
       <c r="I12" s="16" t="s">
         <v>38</v>
       </c>
@@ -5930,7 +5826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="91" t="s">
         <v>42</v>
       </c>
@@ -5949,7 +5845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="26"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -5966,7 +5862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="23" t="s">
         <v>47</v>
       </c>
@@ -5984,7 +5880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>48</v>
       </c>
@@ -6008,7 +5904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="23" t="s">
         <v>45</v>
       </c>
@@ -6029,7 +5925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
@@ -6050,7 +5946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
@@ -6069,7 +5965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="27" t="s">
         <v>52</v>
       </c>
@@ -6091,7 +5987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="H21" s="16" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6108,122 +6004,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="K22" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="K23" s="16">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="K24" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="K25" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="K26" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="K27" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="K28" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="K29" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="K30" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="K31" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="K32" s="16">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11">
       <c r="K33" s="16">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11">
       <c r="K34" s="16">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11">
       <c r="K35" s="16">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11">
       <c r="K36" s="16">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:11">
       <c r="K37" s="16">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:11">
       <c r="K38" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:11">
       <c r="K39" s="16">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:11">
       <c r="K40" s="16">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:11">
       <c r="K41" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:11">
       <c r="K42" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:11">
       <c r="K43" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:11">
       <c r="K44" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:11">
       <c r="K45" s="16" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6242,169 +6138,181 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>825500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6417,22 +6325,22 @@
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="16" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="16"/>
-    <col min="5" max="5" width="11.75" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="16"/>
+    <col min="5" max="5" width="11.6640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="16" customWidth="1"/>
     <col min="7" max="7" width="11" style="16" customWidth="1"/>
-    <col min="8" max="9" width="22.25" style="16" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="16" customWidth="1"/>
+    <col min="8" max="9" width="22.1640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="16" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="16"/>
+    <col min="12" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="105" t="s">
         <v>57</v>
       </c>
@@ -6460,7 +6368,7 @@
       <c r="I1" s="106"/>
       <c r="J1" s="106"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="105"/>
       <c r="B2" s="105"/>
       <c r="C2" s="105"/>
@@ -6478,7 +6386,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="32" customFormat="1">
       <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
@@ -6502,7 +6410,7 @@
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="32" customFormat="1">
       <c r="A4" s="33" t="s">
         <v>58</v>
       </c>
@@ -6530,7 +6438,7 @@
       </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="32" customFormat="1">
       <c r="A5" s="34" t="s">
         <v>81</v>
       </c>
@@ -6558,7 +6466,7 @@
       </c>
       <c r="J5" s="35"/>
     </row>
-    <row r="6" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="32" customFormat="1">
       <c r="A6" s="33" t="s">
         <v>59</v>
       </c>
@@ -6590,7 +6498,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="32" customFormat="1" ht="25.5">
       <c r="A7" s="33" t="s">
         <v>85</v>
       </c>
@@ -6618,7 +6526,7 @@
       </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:11" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="32" customFormat="1" ht="25.5">
       <c r="A8" s="33" t="s">
         <v>87</v>
       </c>
@@ -6646,7 +6554,7 @@
       </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="32" customFormat="1">
       <c r="A9" s="33" t="s">
         <v>89</v>
       </c>
@@ -6674,7 +6582,7 @@
       </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="32" customFormat="1">
       <c r="A10" s="33" t="s">
         <v>91</v>
       </c>
@@ -6698,7 +6606,7 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:11" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="32" customFormat="1" ht="25.5">
       <c r="A11" s="33" t="s">
         <v>94</v>
       </c>
@@ -6726,7 +6634,7 @@
       </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="32" customFormat="1">
       <c r="A12" s="33" t="s">
         <v>96</v>
       </c>
@@ -6754,7 +6662,7 @@
       </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="63">
       <c r="A13" s="36" t="s">
         <v>98</v>
       </c>
@@ -6781,7 +6689,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="36" t="s">
         <v>102</v>
       </c>
@@ -6805,7 +6713,7 @@
       </c>
       <c r="J14" s="36"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="31.5">
       <c r="A15" s="36" t="s">
         <v>104</v>
       </c>
@@ -6832,7 +6740,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="94.5">
       <c r="A16" s="38" t="s">
         <v>108</v>
       </c>
@@ -6861,7 +6769,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="25.5">
       <c r="A17" s="33" t="s">
         <v>113</v>
       </c>
@@ -6890,12 +6798,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="43" t="s">
         <v>120</v>
       </c>
@@ -6908,7 +6816,7 @@
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="46" t="s">
         <v>123</v>
       </c>
@@ -6921,7 +6829,7 @@
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="46" t="s">
         <v>126</v>
       </c>
@@ -6934,7 +6842,7 @@
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="31.5">
       <c r="A24" s="46" t="s">
         <v>129</v>
       </c>
@@ -6947,7 +6855,7 @@
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="46" t="s">
         <v>132</v>
       </c>
@@ -6960,7 +6868,7 @@
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
     </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="63">
       <c r="A26" s="46" t="s">
         <v>135</v>
       </c>
@@ -6985,6 +6893,10 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>